--- a/docs/downloads/power-platform-administrator-checklist.xlsx
+++ b/docs/downloads/power-platform-administrator-checklist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Checklist" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Checklist" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -552,45 +553,81 @@
       <c r="E6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RAG Source Integrity Validation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Multi-Agent Orchestration Limits</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Started</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>PPAC Security Posture Assessment</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Copilot Command Center</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>FSI Agent Governance Framework v1.0 Beta</t>
         </is>

--- a/docs/downloads/power-platform-administrator-checklist.xlsx
+++ b/docs/downloads/power-platform-administrator-checklist.xlsx
@@ -467,7 +467,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
@@ -624,12 +623,10 @@
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr"/>
     </row>
-    <row r="11"/>
-    <row r="12"/>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>FSI Agent Governance Framework v1.0 Beta</t>
+          <t>FSI Agent Governance Framework v1.1</t>
         </is>
       </c>
     </row>
